--- a/doc/外部設計/04_外部設計書_GE☆RA.xlsx
+++ b/doc/外部設計/04_外部設計書_GE☆RA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7CBFD1-2DFA-44EA-BD09-20683A6273C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF88CB6-D08A-448F-BE4C-CFCB45D4515C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9435" yWindow="1230" windowWidth="16095" windowHeight="10155" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="165">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1875,6 +1875,10 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>&lt;&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -2423,6 +2427,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2501,30 +2532,6 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2539,9 +2546,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8534,154 +8538,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="44" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45" t="s">
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45" t="s">
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45" t="s">
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="60" t="s">
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="53"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="62"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="54" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="56">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65">
         <v>44720</v>
       </c>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="57" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="59"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="68"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="46" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="51"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="60"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -8743,11 +8747,11 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
@@ -8785,11 +8789,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -8827,11 +8831,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -9209,8 +9213,8 @@
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="23"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
       <c r="S17" s="23"/>
       <c r="T17" s="23"/>
       <c r="U17" s="23"/>
@@ -9251,8 +9255,8 @@
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
       <c r="S18" s="23"/>
       <c r="T18" s="23"/>
       <c r="U18" s="23"/>
@@ -9419,10 +9423,10 @@
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
       <c r="P22" s="23"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="68"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
       <c r="U22" s="23"/>
       <c r="V22" s="23"/>
       <c r="W22" s="23"/>
@@ -9461,10 +9465,10 @@
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
       <c r="P23" s="23"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="68"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
       <c r="U23" s="23"/>
       <c r="V23" s="23"/>
       <c r="W23" s="23"/>
@@ -10003,22 +10007,22 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -10045,22 +10049,22 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="62"/>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="62"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -10087,22 +10091,22 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="62"/>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="62"/>
-      <c r="AA38" s="62"/>
-      <c r="AB38" s="62"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
@@ -13146,13 +13150,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M6:Q8"/>
-    <mergeCell ref="M36:P38"/>
-    <mergeCell ref="Q36:T38"/>
-    <mergeCell ref="U36:X38"/>
-    <mergeCell ref="Y36:AB38"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="Q22:T23"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -13168,6 +13165,13 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="M6:Q8"/>
+    <mergeCell ref="M36:P38"/>
+    <mergeCell ref="Q36:T38"/>
+    <mergeCell ref="U36:X38"/>
+    <mergeCell ref="Y36:AB38"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="Q22:T23"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13183,7 +13187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EFC3F8-6263-40DA-A109-67E69810C598}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N3" sqref="N3:AN3"/>
     </sheetView>
   </sheetViews>
@@ -13193,154 +13197,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="44" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45" t="s">
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45" t="s">
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45" t="s">
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="60" t="s">
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="53"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="62"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="54" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="73" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="56">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65">
         <v>44720</v>
       </c>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="57" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="59"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="68"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="46" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="51"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="60"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -13402,11 +13406,11 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
@@ -13444,11 +13448,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -13486,11 +13490,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -13952,10 +13956,10 @@
       <c r="N19" s="22"/>
       <c r="O19" s="28"/>
       <c r="P19" s="25"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
       <c r="U19" s="25"/>
       <c r="V19" s="25"/>
       <c r="W19" s="25"/>
@@ -13994,10 +13998,10 @@
       <c r="N20" s="22"/>
       <c r="O20" s="28"/>
       <c r="P20" s="25"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
       <c r="U20" s="25"/>
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
@@ -14662,22 +14666,22 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -14704,22 +14708,22 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="62"/>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="62"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -14746,22 +14750,22 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="69"/>
-      <c r="Q38" s="69"/>
-      <c r="R38" s="69"/>
-      <c r="S38" s="69"/>
-      <c r="T38" s="69"/>
-      <c r="U38" s="69"/>
-      <c r="V38" s="69"/>
-      <c r="W38" s="69"/>
-      <c r="X38" s="69"/>
-      <c r="Y38" s="69"/>
-      <c r="Z38" s="69"/>
-      <c r="AA38" s="69"/>
-      <c r="AB38" s="69"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="70"/>
+      <c r="S38" s="70"/>
+      <c r="T38" s="70"/>
+      <c r="U38" s="70"/>
+      <c r="V38" s="70"/>
+      <c r="W38" s="70"/>
+      <c r="X38" s="70"/>
+      <c r="Y38" s="70"/>
+      <c r="Z38" s="70"/>
+      <c r="AA38" s="70"/>
+      <c r="AB38" s="70"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
@@ -17801,13 +17805,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="Y36:AB38"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
@@ -17822,6 +17819,13 @@
     <mergeCell ref="M36:P38"/>
     <mergeCell ref="Q36:T38"/>
     <mergeCell ref="U36:X38"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -17847,154 +17851,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="44" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45" t="s">
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45" t="s">
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45" t="s">
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="60" t="s">
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="53"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="62"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="54" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="56">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65">
         <v>44720</v>
       </c>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="57" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="59"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="68"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="46" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="51"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="60"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -18056,11 +18060,11 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
@@ -18098,11 +18102,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -18140,11 +18144,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -18522,8 +18526,8 @@
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="23"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
       <c r="S17" s="23"/>
       <c r="T17" s="23"/>
       <c r="U17" s="23"/>
@@ -18564,8 +18568,8 @@
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
       <c r="S18" s="23"/>
       <c r="T18" s="23"/>
       <c r="U18" s="23"/>
@@ -18732,10 +18736,10 @@
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
       <c r="P22" s="23"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="68"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
       <c r="U22" s="23"/>
       <c r="V22" s="23"/>
       <c r="W22" s="23"/>
@@ -18774,10 +18778,10 @@
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
       <c r="P23" s="23"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="68"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
       <c r="U23" s="23"/>
       <c r="V23" s="23"/>
       <c r="W23" s="23"/>
@@ -19316,22 +19320,22 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -19358,22 +19362,22 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="62"/>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="62"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -19400,22 +19404,22 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="69"/>
-      <c r="Q38" s="69"/>
-      <c r="R38" s="69"/>
-      <c r="S38" s="69"/>
-      <c r="T38" s="69"/>
-      <c r="U38" s="69"/>
-      <c r="V38" s="69"/>
-      <c r="W38" s="69"/>
-      <c r="X38" s="69"/>
-      <c r="Y38" s="69"/>
-      <c r="Z38" s="69"/>
-      <c r="AA38" s="69"/>
-      <c r="AB38" s="69"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="70"/>
+      <c r="S38" s="70"/>
+      <c r="T38" s="70"/>
+      <c r="U38" s="70"/>
+      <c r="V38" s="70"/>
+      <c r="W38" s="70"/>
+      <c r="X38" s="70"/>
+      <c r="Y38" s="70"/>
+      <c r="Z38" s="70"/>
+      <c r="AA38" s="70"/>
+      <c r="AB38" s="70"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
@@ -22461,6 +22465,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Y36:AB38"/>
+    <mergeCell ref="M6:Q8"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="Q22:T23"/>
+    <mergeCell ref="M36:P38"/>
+    <mergeCell ref="Q36:T38"/>
+    <mergeCell ref="U36:X38"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -22476,13 +22487,6 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="Y36:AB38"/>
-    <mergeCell ref="M6:Q8"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="Q22:T23"/>
-    <mergeCell ref="M36:P38"/>
-    <mergeCell ref="Q36:T38"/>
-    <mergeCell ref="U36:X38"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -22508,154 +22512,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="44" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45" t="s">
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45" t="s">
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45" t="s">
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="60" t="s">
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="53"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="62"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="54" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="56">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65">
         <v>44720</v>
       </c>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="57" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="59"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="68"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="46" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="51"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="60"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -22717,13 +22721,13 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="61" t="s">
+      <c r="M6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
@@ -22761,11 +22765,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -22803,11 +22807,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -23979,30 +23983,30 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="63" t="s">
+      <c r="M36" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="64" t="s">
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="65" t="s">
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="66" t="s">
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -24029,22 +24033,22 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="62"/>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="62"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -24071,22 +24075,22 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="62"/>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="62"/>
-      <c r="AA38" s="62"/>
-      <c r="AB38" s="62"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
@@ -27132,6 +27136,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="M6:Q8"/>
+    <mergeCell ref="M36:P38"/>
+    <mergeCell ref="Q36:T38"/>
+    <mergeCell ref="U36:X38"/>
+    <mergeCell ref="Y36:AB38"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -27147,11 +27156,6 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="M6:Q8"/>
-    <mergeCell ref="M36:P38"/>
-    <mergeCell ref="Q36:T38"/>
-    <mergeCell ref="U36:X38"/>
-    <mergeCell ref="Y36:AB38"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -27177,152 +27181,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="44" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45" t="s">
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45" t="s">
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="60" t="s">
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="53"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="62"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="54" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="56">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65">
         <v>44720</v>
       </c>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="57" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="59"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="68"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="46" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="51"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="60"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -27384,11 +27388,11 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
@@ -27426,11 +27430,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -27468,11 +27472,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -27934,10 +27938,10 @@
       <c r="N19" s="22"/>
       <c r="O19" s="28"/>
       <c r="P19" s="25"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
       <c r="U19" s="25"/>
       <c r="V19" s="25"/>
       <c r="W19" s="25"/>
@@ -27976,10 +27980,10 @@
       <c r="N20" s="22"/>
       <c r="O20" s="28"/>
       <c r="P20" s="25"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
       <c r="U20" s="25"/>
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
@@ -28646,22 +28650,22 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -28688,22 +28692,22 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="62"/>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="62"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -28730,22 +28734,22 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="62"/>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="62"/>
-      <c r="AA38" s="62"/>
-      <c r="AB38" s="62"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
@@ -31793,13 +31797,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="Y36:AB38"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
@@ -31814,6 +31811,13 @@
     <mergeCell ref="M36:P38"/>
     <mergeCell ref="Q36:T38"/>
     <mergeCell ref="U36:X38"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -31839,154 +31843,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="44" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45" t="s">
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45" t="s">
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45" t="s">
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="60" t="s">
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="53"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="62"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="54" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="56">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65">
         <v>44720</v>
       </c>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="57" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="59"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="68"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="46" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="51"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="60"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -32048,11 +32052,11 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
@@ -32090,11 +32094,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -32132,11 +32136,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -33309,22 +33313,22 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -33351,22 +33355,22 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="62"/>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="62"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -33393,22 +33397,22 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="62"/>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="62"/>
-      <c r="AA38" s="62"/>
-      <c r="AB38" s="62"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
@@ -36454,6 +36458,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="M6:Q8"/>
+    <mergeCell ref="M36:P38"/>
+    <mergeCell ref="Q36:T38"/>
+    <mergeCell ref="U36:X38"/>
+    <mergeCell ref="Y36:AB38"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -36469,11 +36478,6 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="M6:Q8"/>
-    <mergeCell ref="M36:P38"/>
-    <mergeCell ref="Q36:T38"/>
-    <mergeCell ref="U36:X38"/>
-    <mergeCell ref="Y36:AB38"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -36499,154 +36503,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="44" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45" t="s">
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45" t="s">
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45" t="s">
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="60" t="s">
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="53"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="62"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="54" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="56">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65">
         <v>44720</v>
       </c>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="57" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="59"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="68"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="46" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="51"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="60"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -36708,11 +36712,11 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
@@ -36750,11 +36754,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -36792,11 +36796,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -37258,10 +37262,10 @@
       <c r="N19" s="22"/>
       <c r="O19" s="28"/>
       <c r="P19" s="25"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
       <c r="U19" s="25"/>
       <c r="V19" s="25"/>
       <c r="W19" s="25"/>
@@ -37300,10 +37304,10 @@
       <c r="N20" s="22"/>
       <c r="O20" s="28"/>
       <c r="P20" s="25"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
       <c r="U20" s="25"/>
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
@@ -37968,22 +37972,22 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -38010,22 +38014,22 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="62"/>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="62"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -38052,22 +38056,22 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="62"/>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="62"/>
-      <c r="AA38" s="62"/>
-      <c r="AB38" s="62"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
@@ -41119,13 +41123,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="Y36:AB38"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
@@ -41140,6 +41137,13 @@
     <mergeCell ref="M36:P38"/>
     <mergeCell ref="Q36:T38"/>
     <mergeCell ref="U36:X38"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -41155,7 +41159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2429734-740F-4AA8-BE17-801ED94C0079}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N3" sqref="N3:AN3"/>
     </sheetView>
   </sheetViews>
@@ -41165,154 +41169,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="44" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45" t="s">
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45" t="s">
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45" t="s">
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="60" t="s">
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="53"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="62"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="54" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="56">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65">
         <v>44720</v>
       </c>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="57" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="59"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="68"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="46" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="51"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="60"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -41374,13 +41380,13 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="61" t="s">
+      <c r="M6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
@@ -41418,11 +41424,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -41460,11 +41466,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -41926,12 +41932,12 @@
       <c r="N19" s="22"/>
       <c r="O19" s="28"/>
       <c r="P19" s="25"/>
-      <c r="Q19" s="70" t="s">
+      <c r="Q19" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
       <c r="U19" s="25"/>
       <c r="V19" s="25"/>
       <c r="W19" s="25"/>
@@ -41970,10 +41976,10 @@
       <c r="N20" s="22"/>
       <c r="O20" s="28"/>
       <c r="P20" s="25"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
       <c r="U20" s="25"/>
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
@@ -42638,30 +42644,30 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="63" t="s">
+      <c r="M36" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="64" t="s">
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="65" t="s">
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="66" t="s">
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -42688,22 +42694,22 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="62"/>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="62"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -42730,22 +42736,22 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="62"/>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="62"/>
-      <c r="AA38" s="62"/>
-      <c r="AB38" s="62"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
@@ -45779,12 +45785,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="M6:Q8"/>
-    <mergeCell ref="M36:P38"/>
-    <mergeCell ref="Q36:T38"/>
-    <mergeCell ref="U36:X38"/>
-    <mergeCell ref="Y36:AB38"/>
-    <mergeCell ref="Q19:T20"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -45800,6 +45800,12 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="M6:Q8"/>
+    <mergeCell ref="M36:P38"/>
+    <mergeCell ref="Q36:T38"/>
+    <mergeCell ref="U36:X38"/>
+    <mergeCell ref="Y36:AB38"/>
+    <mergeCell ref="Q19:T20"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -45825,154 +45831,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="44" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45" t="s">
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45" t="s">
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45" t="s">
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="60" t="s">
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="53"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="62"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="54" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="56">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65">
         <v>44720</v>
       </c>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="57" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="59"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="68"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="46" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="51"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="60"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -46034,11 +46040,11 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
@@ -46076,11 +46082,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -46118,11 +46124,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -46584,10 +46590,10 @@
       <c r="N19" s="22"/>
       <c r="O19" s="28"/>
       <c r="P19" s="25"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
       <c r="U19" s="25"/>
       <c r="V19" s="25"/>
       <c r="W19" s="25"/>
@@ -46626,10 +46632,10 @@
       <c r="N20" s="22"/>
       <c r="O20" s="28"/>
       <c r="P20" s="25"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
       <c r="U20" s="25"/>
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
@@ -46809,7 +46815,7 @@
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
       <c r="AE24" s="9"/>
-      <c r="AF24" s="74"/>
+      <c r="AF24" s="35"/>
       <c r="AG24" s="9"/>
       <c r="AH24" s="9"/>
       <c r="AI24" s="9"/>
@@ -47294,22 +47300,22 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -47336,22 +47342,22 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="62"/>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="62"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -47378,22 +47384,22 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="62"/>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="62"/>
-      <c r="AA38" s="62"/>
-      <c r="AB38" s="62"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
@@ -50449,13 +50455,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="Y36:AB38"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
@@ -50470,6 +50469,13 @@
     <mergeCell ref="M36:P38"/>
     <mergeCell ref="Q36:T38"/>
     <mergeCell ref="U36:X38"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -50495,154 +50501,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="44" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45" t="s">
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45" t="s">
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45" t="s">
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="60" t="s">
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="53"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="62"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="54" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="56">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65">
         <v>44720</v>
       </c>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="57" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="59"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="68"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="46" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="51"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="60"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -50704,11 +50710,11 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
@@ -50746,11 +50752,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -50788,11 +50794,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -51254,10 +51260,10 @@
       <c r="N19" s="22"/>
       <c r="O19" s="28"/>
       <c r="P19" s="25"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
       <c r="U19" s="25"/>
       <c r="V19" s="25"/>
       <c r="W19" s="25"/>
@@ -51296,10 +51302,10 @@
       <c r="N20" s="22"/>
       <c r="O20" s="28"/>
       <c r="P20" s="25"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
       <c r="U20" s="25"/>
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
@@ -51964,22 +51970,22 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -52006,22 +52012,22 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="62"/>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="62"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -52048,22 +52054,22 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="62"/>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="62"/>
-      <c r="AA38" s="62"/>
-      <c r="AB38" s="62"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
@@ -55113,13 +55119,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="Y36:AB38"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
@@ -55134,6 +55133,13 @@
     <mergeCell ref="M36:P38"/>
     <mergeCell ref="Q36:T38"/>
     <mergeCell ref="U36:X38"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/doc/外部設計/04_外部設計書_GE☆RA.xlsx
+++ b/doc/外部設計/04_外部設計書_GE☆RA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF88CB6-D08A-448F-BE4C-CFCB45D4515C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C82FBBD-6CBC-4B4A-B84F-5EAF055C6935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9435" yWindow="1230" windowWidth="16095" windowHeight="10155" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="166">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1879,6 +1879,10 @@
     <t>&lt;&gt;</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>ネーム属性　＝　PW</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -2430,30 +2434,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2531,6 +2511,30 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8528,8 +8532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B9341C-ED9B-4DC9-A2CA-DD96AE742622}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AF56" sqref="AF56"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AB48" sqref="AB48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8538,154 +8542,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="53" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54" t="s">
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="69" t="s">
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="62"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="54"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="63" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64" t="s">
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="65">
+      <c r="X2" s="56"/>
+      <c r="Y2" s="57">
         <v>44720</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="66" t="s">
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="68"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="60"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="55" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="60"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="52"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -8747,11 +8751,11 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
@@ -8789,11 +8793,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -8831,11 +8835,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -9213,8 +9217,8 @@
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="23"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
       <c r="S17" s="23"/>
       <c r="T17" s="23"/>
       <c r="U17" s="23"/>
@@ -9255,8 +9259,8 @@
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
       <c r="S18" s="23"/>
       <c r="T18" s="23"/>
       <c r="U18" s="23"/>
@@ -9423,10 +9427,10 @@
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
       <c r="P22" s="23"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
       <c r="U22" s="23"/>
       <c r="V22" s="23"/>
       <c r="W22" s="23"/>
@@ -9465,10 +9469,10 @@
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
       <c r="P23" s="23"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="69"/>
       <c r="U23" s="23"/>
       <c r="V23" s="23"/>
       <c r="W23" s="23"/>
@@ -10007,22 +10011,22 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="37"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="63"/>
+      <c r="AA36" s="63"/>
+      <c r="AB36" s="63"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -10049,22 +10053,22 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -10091,22 +10095,22 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
@@ -10577,7 +10581,7 @@
       <c r="V49" s="9"/>
       <c r="W49" s="9"/>
       <c r="X49" s="32" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="Y49" s="9"/>
       <c r="Z49" s="9"/>
@@ -13150,6 +13154,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M6:Q8"/>
+    <mergeCell ref="M36:P38"/>
+    <mergeCell ref="Q36:T38"/>
+    <mergeCell ref="U36:X38"/>
+    <mergeCell ref="Y36:AB38"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="Q22:T23"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -13165,13 +13176,6 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="M6:Q8"/>
-    <mergeCell ref="M36:P38"/>
-    <mergeCell ref="Q36:T38"/>
-    <mergeCell ref="U36:X38"/>
-    <mergeCell ref="Y36:AB38"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="Q22:T23"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13197,154 +13201,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="53" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54" t="s">
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="69" t="s">
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="62"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="54"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="63" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64" t="s">
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="65">
+      <c r="X2" s="56"/>
+      <c r="Y2" s="57">
         <v>44720</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="66" t="s">
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="68"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="60"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="55" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="60"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="52"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -13448,11 +13452,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -13490,11 +13494,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -14666,22 +14670,22 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="37"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="63"/>
+      <c r="AA36" s="63"/>
+      <c r="AB36" s="63"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -14708,22 +14712,22 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -17805,6 +17809,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="Y36:AB38"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
@@ -17819,13 +17830,6 @@
     <mergeCell ref="M36:P38"/>
     <mergeCell ref="Q36:T38"/>
     <mergeCell ref="U36:X38"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -17851,154 +17855,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="53" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54" t="s">
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="69" t="s">
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="62"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="54"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="63" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64" t="s">
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="65">
+      <c r="X2" s="56"/>
+      <c r="Y2" s="57">
         <v>44720</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="66" t="s">
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="68"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="60"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="55" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="60"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="52"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -18060,11 +18064,11 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
@@ -18102,11 +18106,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -18144,11 +18148,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -18526,8 +18530,8 @@
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="23"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
       <c r="S17" s="23"/>
       <c r="T17" s="23"/>
       <c r="U17" s="23"/>
@@ -18568,8 +18572,8 @@
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
       <c r="S18" s="23"/>
       <c r="T18" s="23"/>
       <c r="U18" s="23"/>
@@ -18736,10 +18740,10 @@
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
       <c r="P22" s="23"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
       <c r="U22" s="23"/>
       <c r="V22" s="23"/>
       <c r="W22" s="23"/>
@@ -18778,10 +18782,10 @@
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
       <c r="P23" s="23"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="69"/>
       <c r="U23" s="23"/>
       <c r="V23" s="23"/>
       <c r="W23" s="23"/>
@@ -19320,22 +19324,22 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="37"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="63"/>
+      <c r="AA36" s="63"/>
+      <c r="AB36" s="63"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -19362,22 +19366,22 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -22465,13 +22469,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Y36:AB38"/>
-    <mergeCell ref="M6:Q8"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="Q22:T23"/>
-    <mergeCell ref="M36:P38"/>
-    <mergeCell ref="Q36:T38"/>
-    <mergeCell ref="U36:X38"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -22487,6 +22484,13 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="Y36:AB38"/>
+    <mergeCell ref="M6:Q8"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="Q22:T23"/>
+    <mergeCell ref="M36:P38"/>
+    <mergeCell ref="Q36:T38"/>
+    <mergeCell ref="U36:X38"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -22512,154 +22516,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="53" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54" t="s">
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="69" t="s">
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="62"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="54"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="63" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64" t="s">
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="65">
+      <c r="X2" s="56"/>
+      <c r="Y2" s="57">
         <v>44720</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="66" t="s">
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="68"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="60"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="55" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="60"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="52"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -22721,13 +22725,13 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
@@ -22765,11 +22769,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -22807,11 +22811,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -23983,30 +23987,30 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="38" t="s">
+      <c r="M36" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="39" t="s">
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="40" t="s">
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="41" t="s">
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="37"/>
+      <c r="Z36" s="63"/>
+      <c r="AA36" s="63"/>
+      <c r="AB36" s="63"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -24033,22 +24037,22 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -24075,22 +24079,22 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
@@ -27136,11 +27140,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="M6:Q8"/>
-    <mergeCell ref="M36:P38"/>
-    <mergeCell ref="Q36:T38"/>
-    <mergeCell ref="U36:X38"/>
-    <mergeCell ref="Y36:AB38"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -27156,6 +27155,11 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="M6:Q8"/>
+    <mergeCell ref="M36:P38"/>
+    <mergeCell ref="Q36:T38"/>
+    <mergeCell ref="U36:X38"/>
+    <mergeCell ref="Y36:AB38"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -27181,152 +27185,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="53" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="69" t="s">
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="62"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="54"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="63" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64" t="s">
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="65">
+      <c r="X2" s="56"/>
+      <c r="Y2" s="57">
         <v>44720</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="66" t="s">
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="68"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="60"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="55" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="60"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="52"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -27388,11 +27392,11 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
@@ -27430,11 +27434,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -27472,11 +27476,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -28650,22 +28654,22 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="37"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="63"/>
+      <c r="AA36" s="63"/>
+      <c r="AB36" s="63"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -28692,22 +28696,22 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -28734,22 +28738,22 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
@@ -31797,6 +31801,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="Y36:AB38"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
@@ -31811,13 +31822,6 @@
     <mergeCell ref="M36:P38"/>
     <mergeCell ref="Q36:T38"/>
     <mergeCell ref="U36:X38"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -31843,154 +31847,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="53" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54" t="s">
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="69" t="s">
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="62"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="54"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="63" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64" t="s">
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="65">
+      <c r="X2" s="56"/>
+      <c r="Y2" s="57">
         <v>44720</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="66" t="s">
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="68"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="60"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="55" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="60"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="52"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -32052,11 +32056,11 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
@@ -32094,11 +32098,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -32136,11 +32140,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -33313,22 +33317,22 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="37"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="63"/>
+      <c r="AA36" s="63"/>
+      <c r="AB36" s="63"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -33355,22 +33359,22 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -33397,22 +33401,22 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
@@ -36458,11 +36462,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="M6:Q8"/>
-    <mergeCell ref="M36:P38"/>
-    <mergeCell ref="Q36:T38"/>
-    <mergeCell ref="U36:X38"/>
-    <mergeCell ref="Y36:AB38"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -36478,6 +36477,11 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="M6:Q8"/>
+    <mergeCell ref="M36:P38"/>
+    <mergeCell ref="Q36:T38"/>
+    <mergeCell ref="U36:X38"/>
+    <mergeCell ref="Y36:AB38"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -36503,154 +36507,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="53" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54" t="s">
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="69" t="s">
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="62"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="54"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="63" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64" t="s">
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="65">
+      <c r="X2" s="56"/>
+      <c r="Y2" s="57">
         <v>44720</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="66" t="s">
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="68"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="60"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="55" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="60"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="52"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -36712,11 +36716,11 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
@@ -36754,11 +36758,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -36796,11 +36800,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -37972,22 +37976,22 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="37"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="63"/>
+      <c r="AA36" s="63"/>
+      <c r="AB36" s="63"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -38014,22 +38018,22 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -38056,22 +38060,22 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
@@ -41123,6 +41127,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="Y36:AB38"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
@@ -41137,13 +41148,6 @@
     <mergeCell ref="M36:P38"/>
     <mergeCell ref="Q36:T38"/>
     <mergeCell ref="U36:X38"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -41159,7 +41163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2429734-740F-4AA8-BE17-801ED94C0079}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N3" sqref="N3:AN3"/>
     </sheetView>
   </sheetViews>
@@ -41169,156 +41173,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="53" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54" t="s">
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="69" t="s">
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="62"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="54"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="63" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64" t="s">
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="65">
+      <c r="X2" s="56"/>
+      <c r="Y2" s="57">
         <v>44720</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="66" t="s">
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="68"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="60"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="55" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58" t="s">
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="60"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="52"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -41380,13 +41384,13 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
@@ -41424,11 +41428,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -41466,11 +41470,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -42644,30 +42648,30 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="38" t="s">
+      <c r="M36" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="39" t="s">
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="40" t="s">
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="41" t="s">
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="37"/>
+      <c r="Z36" s="63"/>
+      <c r="AA36" s="63"/>
+      <c r="AB36" s="63"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -42694,22 +42698,22 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -42736,22 +42740,22 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
@@ -45785,6 +45789,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="M6:Q8"/>
+    <mergeCell ref="M36:P38"/>
+    <mergeCell ref="Q36:T38"/>
+    <mergeCell ref="U36:X38"/>
+    <mergeCell ref="Y36:AB38"/>
+    <mergeCell ref="Q19:T20"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -45800,12 +45810,6 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="M6:Q8"/>
-    <mergeCell ref="M36:P38"/>
-    <mergeCell ref="Q36:T38"/>
-    <mergeCell ref="U36:X38"/>
-    <mergeCell ref="Y36:AB38"/>
-    <mergeCell ref="Q19:T20"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -45831,154 +45835,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="53" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54" t="s">
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="69" t="s">
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="62"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="54"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="63" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64" t="s">
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="65">
+      <c r="X2" s="56"/>
+      <c r="Y2" s="57">
         <v>44720</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="66" t="s">
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="68"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="60"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="55" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="60"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="52"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -46040,11 +46044,11 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
@@ -46082,11 +46086,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -46124,11 +46128,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -47300,22 +47304,22 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="37"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="63"/>
+      <c r="AA36" s="63"/>
+      <c r="AB36" s="63"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -47342,22 +47346,22 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -47384,22 +47388,22 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
@@ -50455,6 +50459,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="Y36:AB38"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
@@ -50469,13 +50480,6 @@
     <mergeCell ref="M36:P38"/>
     <mergeCell ref="Q36:T38"/>
     <mergeCell ref="U36:X38"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -50501,154 +50505,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="53" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54" t="s">
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="69" t="s">
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="62"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="54"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="63" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64" t="s">
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64" t="s">
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="65">
+      <c r="X2" s="56"/>
+      <c r="Y2" s="57">
         <v>44720</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="66" t="s">
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="68"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="60"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="55" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="60"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="52"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -50752,11 +50756,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -50794,11 +50798,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -51970,22 +51974,22 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="37"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="63"/>
+      <c r="AA36" s="63"/>
+      <c r="AB36" s="63"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
@@ -52012,22 +52016,22 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -52054,22 +52058,22 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
@@ -55119,6 +55123,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="Y36:AB38"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
@@ -55133,13 +55144,6 @@
     <mergeCell ref="M36:P38"/>
     <mergeCell ref="Q36:T38"/>
     <mergeCell ref="U36:X38"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
